--- a/DesignDatabase_ThanhNgan.xlsx
+++ b/DesignDatabase_ThanhNgan.xlsx
@@ -1717,8 +1717,8 @@
   <sheetPr/>
   <dimension ref="A1:AA883"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
